--- a/BrandonCeniceros_Week2Homework.xlsx
+++ b/BrandonCeniceros_Week2Homework.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Code\SavvyCoders\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F303501-1A42-4BE8-9335-719BFCC5411C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF47A12A-DF11-407F-9975-3EF7F51B595A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="465" windowWidth="28170" windowHeight="14955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Payments1" sheetId="5" r:id="rId1"/>
+    <sheet name="Payments" sheetId="5" r:id="rId1"/>
     <sheet name="Expenses" sheetId="1" r:id="rId2"/>
     <sheet name="Roster" sheetId="2" r:id="rId3"/>
     <sheet name="Credit Card Debt" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="171">
   <si>
     <t>Document Date</t>
   </si>
@@ -545,43 +545,13 @@
     <t>Sum of Tax Inclusive Amount</t>
   </si>
   <si>
-    <t>&lt;3/2/2011</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
     <t>Feb</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
   </si>
 </sst>
 </file>
@@ -667,7 +637,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -722,6 +692,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -999,44 +970,128 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[BrandonCeniceros_Week2Homework.xlsx]Payments1!PivotTable1</c:name>
+    <c:name>[BrandonCeniceros_Week2Homework.xlsx]Payments!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -1143,11 +1198,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Payments1!$B$3</c:f>
+              <c:f>Payments!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>B1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1165,95 +1220,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Payments1!$A$4:$A$17</c:f>
+              <c:f>Payments!$A$5:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>&lt;3/2/2011</c:v>
+                  <c:v>Jan</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payments1!$B$4:$B$17</c:f>
+              <c:f>Payments!$B$5:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>11468</c:v>
+                  <c:v>30270.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30301.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>34664</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25714</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30040</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32422</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>39749</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28562</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>46358</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>47366</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>38457.479999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28628</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>38011</c:v>
+                  <c:v>34624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,6 +1250,126 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CE9D-4F3D-BD97-43BC17596B2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Payments!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Payments!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Payments!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B758-4C64-A853-299E9E5804DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Payments!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Payments!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Payments!$D$5:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B758-4C64-A853-299E9E5804DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3896,16 +4005,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4035,7 +4144,11 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Bank Code" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="3">
+        <s v="B1"/>
+        <s v="B2"/>
+        <s v="PC"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Account Code" numFmtId="0">
       <sharedItems/>
@@ -4218,7 +4331,7 @@
     <s v="Opening Balance"/>
     <n v="5100"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-500"/>
     <x v="0"/>
   </r>
@@ -4229,7 +4342,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
     <x v="1"/>
   </r>
@@ -4240,7 +4353,7 @@
     <s v="Subscriptions"/>
     <n v="478"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-375"/>
     <x v="2"/>
   </r>
@@ -4251,7 +4364,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
     <x v="3"/>
   </r>
@@ -4262,7 +4375,7 @@
     <s v="Service Fees"/>
     <n v="50"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
     <x v="4"/>
   </r>
@@ -4273,7 +4386,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
     <x v="4"/>
   </r>
@@ -4284,7 +4397,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
     <x v="5"/>
   </r>
@@ -4295,7 +4408,7 @@
     <s v="Flowers"/>
     <n v="90"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
     <x v="4"/>
   </r>
@@ -4306,7 +4419,7 @@
     <s v="Parking"/>
     <n v="200"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-390"/>
     <x v="6"/>
   </r>
@@ -4317,7 +4430,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-15000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
     <x v="7"/>
   </r>
@@ -4328,7 +4441,7 @@
     <s v="Inter Account Transfer"/>
     <n v="15000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="7"/>
   </r>
@@ -4339,7 +4452,7 @@
     <s v="Salaries"/>
     <n v="13000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
     <x v="8"/>
   </r>
@@ -4350,7 +4463,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
     <x v="8"/>
   </r>
@@ -4361,7 +4474,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
     <x v="8"/>
   </r>
@@ -4372,7 +4485,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
     <x v="8"/>
   </r>
@@ -4383,7 +4496,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="1"/>
   </r>
@@ -4394,7 +4507,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-100"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
     <x v="1"/>
   </r>
@@ -4405,7 +4518,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
     <x v="9"/>
   </r>
@@ -4416,7 +4529,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
     <x v="10"/>
   </r>
@@ -4427,7 +4540,7 @@
     <s v="Flowers"/>
     <n v="87"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
     <x v="11"/>
   </r>
@@ -4438,7 +4551,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
     <x v="12"/>
   </r>
@@ -4449,7 +4562,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
     <x v="12"/>
   </r>
@@ -4460,7 +4573,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
     <x v="13"/>
   </r>
@@ -4471,7 +4584,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
     <x v="14"/>
   </r>
@@ -4482,7 +4595,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="14"/>
   </r>
@@ -4493,7 +4606,7 @@
     <s v="Sales Tax"/>
     <n v="1300"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-600"/>
     <x v="15"/>
   </r>
@@ -4504,7 +4617,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
     <x v="16"/>
   </r>
@@ -4515,7 +4628,7 @@
     <s v="Furniture"/>
     <n v="3000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-100"/>
     <x v="17"/>
   </r>
@@ -4526,7 +4639,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
     <x v="16"/>
   </r>
@@ -4537,7 +4650,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
     <x v="16"/>
   </r>
@@ -4548,7 +4661,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
     <x v="16"/>
   </r>
@@ -4559,7 +4672,7 @@
     <s v="Consumables"/>
     <n v="41"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-325"/>
     <x v="18"/>
   </r>
@@ -4570,7 +4683,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="19"/>
   </r>
@@ -4581,7 +4694,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-100"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
     <x v="19"/>
   </r>
@@ -4592,7 +4705,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
     <x v="20"/>
   </r>
@@ -4603,7 +4716,7 @@
     <s v="Course"/>
     <n v="220"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-385"/>
     <x v="20"/>
   </r>
@@ -4614,7 +4727,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
     <x v="21"/>
   </r>
@@ -4625,7 +4738,7 @@
     <s v="Accommodation"/>
     <n v="563"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-390"/>
     <x v="22"/>
   </r>
@@ -4636,7 +4749,7 @@
     <s v="Stationery"/>
     <n v="982"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-370"/>
     <x v="23"/>
   </r>
@@ -4647,7 +4760,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
     <x v="24"/>
   </r>
@@ -4658,7 +4771,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
     <x v="24"/>
   </r>
@@ -4669,7 +4782,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
     <x v="25"/>
   </r>
@@ -4680,7 +4793,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
     <x v="26"/>
   </r>
@@ -4691,7 +4804,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="26"/>
   </r>
@@ -4702,7 +4815,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
     <x v="17"/>
   </r>
@@ -4713,7 +4826,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
     <x v="17"/>
   </r>
@@ -4724,7 +4837,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
     <x v="17"/>
   </r>
@@ -4735,7 +4848,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
     <x v="17"/>
   </r>
@@ -4746,7 +4859,7 @@
     <s v="Flowers"/>
     <n v="65"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
     <x v="18"/>
   </r>
@@ -4757,7 +4870,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="20"/>
   </r>
@@ -4768,7 +4881,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-100"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
     <x v="20"/>
   </r>
@@ -4779,7 +4892,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
     <x v="27"/>
   </r>
@@ -4790,7 +4903,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
     <x v="28"/>
   </r>
@@ -4801,7 +4914,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
     <x v="29"/>
   </r>
@@ -4812,7 +4925,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
     <x v="29"/>
   </r>
@@ -4823,7 +4936,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
     <x v="30"/>
   </r>
@@ -4834,7 +4947,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
     <x v="31"/>
   </r>
@@ -4845,7 +4958,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="31"/>
   </r>
@@ -4856,7 +4969,7 @@
     <s v="Flowers"/>
     <n v="110"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
     <x v="32"/>
   </r>
@@ -4867,7 +4980,7 @@
     <s v="Sales Tax"/>
     <n v="8700"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-600"/>
     <x v="33"/>
   </r>
@@ -4878,7 +4991,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
     <x v="34"/>
   </r>
@@ -4889,7 +5002,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
     <x v="34"/>
   </r>
@@ -4900,7 +5013,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
     <x v="34"/>
   </r>
@@ -4911,7 +5024,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
     <x v="34"/>
   </r>
@@ -4922,7 +5035,7 @@
     <s v="Travel"/>
     <n v="1782"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-390"/>
     <x v="34"/>
   </r>
@@ -4933,7 +5046,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="35"/>
   </r>
@@ -4944,7 +5057,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-100"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
     <x v="35"/>
   </r>
@@ -4955,7 +5068,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
     <x v="36"/>
   </r>
@@ -4966,7 +5079,7 @@
     <s v="Stationery"/>
     <n v="761"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-370"/>
     <x v="37"/>
   </r>
@@ -4977,7 +5090,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
     <x v="38"/>
   </r>
@@ -4988,7 +5101,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
     <x v="39"/>
   </r>
@@ -4999,7 +5112,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
     <x v="39"/>
   </r>
@@ -5010,7 +5123,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
     <x v="40"/>
   </r>
@@ -5021,7 +5134,7 @@
     <s v="Flowers"/>
     <n v="29"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
     <x v="41"/>
   </r>
@@ -5032,7 +5145,7 @@
     <s v="Consumables"/>
     <n v="937"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-325"/>
     <x v="42"/>
   </r>
@@ -5043,7 +5156,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
     <x v="43"/>
   </r>
@@ -5054,7 +5167,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="43"/>
   </r>
@@ -5065,7 +5178,7 @@
     <s v="Annual Membership"/>
     <n v="2000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-375"/>
     <x v="44"/>
   </r>
@@ -5076,7 +5189,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
     <x v="45"/>
   </r>
@@ -5087,7 +5200,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
     <x v="45"/>
   </r>
@@ -5098,7 +5211,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
     <x v="45"/>
   </r>
@@ -5109,7 +5222,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
     <x v="45"/>
   </r>
@@ -5120,7 +5233,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="50"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="36"/>
   </r>
@@ -5131,7 +5244,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-50"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
     <x v="36"/>
   </r>
@@ -5142,7 +5255,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
     <x v="46"/>
   </r>
@@ -5153,7 +5266,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
     <x v="47"/>
   </r>
@@ -5164,7 +5277,7 @@
     <s v="Flowers"/>
     <n v="78"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
     <x v="48"/>
   </r>
@@ -5175,7 +5288,7 @@
     <s v="Commission"/>
     <n v="747"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-320"/>
     <x v="49"/>
   </r>
@@ -5186,7 +5299,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
     <x v="50"/>
   </r>
@@ -5197,7 +5310,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
     <x v="50"/>
   </r>
@@ -5208,7 +5321,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
     <x v="51"/>
   </r>
@@ -5219,7 +5332,7 @@
     <s v="Travel"/>
     <n v="1278"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-390"/>
     <x v="50"/>
   </r>
@@ -5230,7 +5343,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
     <x v="52"/>
   </r>
@@ -5241,7 +5354,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="52"/>
   </r>
@@ -5252,7 +5365,7 @@
     <s v="Share investment"/>
     <n v="3750"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-200"/>
     <x v="53"/>
   </r>
@@ -5263,7 +5376,7 @@
     <s v="Sales Tax"/>
     <n v="6600"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-600"/>
     <x v="54"/>
   </r>
@@ -5274,7 +5387,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
     <x v="55"/>
   </r>
@@ -5285,7 +5398,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
     <x v="55"/>
   </r>
@@ -5296,7 +5409,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
     <x v="55"/>
   </r>
@@ -5307,7 +5420,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
     <x v="55"/>
   </r>
@@ -5318,7 +5431,7 @@
     <s v="Stationery"/>
     <n v="234"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-370"/>
     <x v="56"/>
   </r>
@@ -5329,7 +5442,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="50"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="46"/>
   </r>
@@ -5340,7 +5453,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-50"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
     <x v="46"/>
   </r>
@@ -5351,7 +5464,7 @@
     <s v="Provisional Tax"/>
     <n v="2600"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-600"/>
     <x v="46"/>
   </r>
@@ -5362,7 +5475,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
     <x v="57"/>
   </r>
@@ -5373,7 +5486,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
     <x v="58"/>
   </r>
@@ -5384,7 +5497,7 @@
     <s v="Course"/>
     <n v="277.48"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-385"/>
     <x v="59"/>
   </r>
@@ -5395,7 +5508,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
     <x v="60"/>
   </r>
@@ -5406,7 +5519,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
     <x v="60"/>
   </r>
@@ -5417,7 +5530,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
     <x v="61"/>
   </r>
@@ -5428,7 +5541,7 @@
     <s v="Rates"/>
     <n v="5620"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-395"/>
     <x v="62"/>
   </r>
@@ -5439,7 +5552,7 @@
     <s v="Legal advice"/>
     <n v="12500"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-360"/>
     <x v="62"/>
   </r>
@@ -5450,7 +5563,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
     <x v="63"/>
   </r>
@@ -5461,7 +5574,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="63"/>
   </r>
@@ -5472,7 +5585,7 @@
     <s v="Flowers"/>
     <n v="90"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
     <x v="64"/>
   </r>
@@ -5483,7 +5596,7 @@
     <s v="Commission"/>
     <n v="4242"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-320"/>
     <x v="65"/>
   </r>
@@ -5494,7 +5607,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
     <x v="56"/>
   </r>
@@ -5505,7 +5618,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
     <x v="56"/>
   </r>
@@ -5516,7 +5629,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
     <x v="56"/>
   </r>
@@ -5527,7 +5640,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
     <x v="56"/>
   </r>
@@ -5538,7 +5651,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="66"/>
   </r>
@@ -5549,7 +5662,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-100"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
     <x v="66"/>
   </r>
@@ -5560,7 +5673,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
     <x v="67"/>
   </r>
@@ -5571,7 +5684,7 @@
     <s v="Consumables"/>
     <n v="62"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-325"/>
     <x v="68"/>
   </r>
@@ -5582,7 +5695,7 @@
     <s v="Travel"/>
     <n v="1887"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-390"/>
     <x v="69"/>
   </r>
@@ -5593,7 +5706,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
     <x v="70"/>
   </r>
@@ -5604,7 +5717,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
     <x v="71"/>
   </r>
@@ -5615,7 +5728,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
     <x v="71"/>
   </r>
@@ -5626,7 +5739,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
     <x v="72"/>
   </r>
@@ -5637,7 +5750,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
     <x v="73"/>
   </r>
@@ -5648,7 +5761,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="73"/>
   </r>
@@ -5659,7 +5772,7 @@
     <s v="Stationery"/>
     <n v="289"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-370"/>
     <x v="74"/>
   </r>
@@ -5670,7 +5783,7 @@
     <s v="Sales Tax"/>
     <n v="3300"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-600"/>
     <x v="75"/>
   </r>
@@ -5681,7 +5794,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
     <x v="76"/>
   </r>
@@ -5692,7 +5805,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
     <x v="76"/>
   </r>
@@ -5703,7 +5816,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
     <x v="76"/>
   </r>
@@ -5714,7 +5827,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
     <x v="76"/>
   </r>
@@ -5725,7 +5838,7 @@
     <s v="Flowers"/>
     <n v="218"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
     <x v="77"/>
   </r>
@@ -5736,7 +5849,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="200"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="67"/>
   </r>
@@ -5747,7 +5860,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-200"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
     <x v="67"/>
   </r>
@@ -5758,7 +5871,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
     <x v="78"/>
   </r>
@@ -5769,7 +5882,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
     <x v="79"/>
   </r>
@@ -5780,7 +5893,7 @@
     <s v="Commission"/>
     <n v="982"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-320"/>
     <x v="80"/>
   </r>
@@ -5791,7 +5904,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
     <x v="81"/>
   </r>
@@ -5802,7 +5915,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
     <x v="81"/>
   </r>
@@ -5813,7 +5926,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
     <x v="82"/>
   </r>
@@ -5824,7 +5937,7 @@
     <s v="Flowers"/>
     <n v="102"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
     <x v="83"/>
   </r>
@@ -5835,7 +5948,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
     <x v="84"/>
   </r>
@@ -5846,7 +5959,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="84"/>
   </r>
@@ -5857,7 +5970,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
     <x v="85"/>
   </r>
@@ -5868,7 +5981,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
     <x v="85"/>
   </r>
@@ -5879,7 +5992,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
     <x v="85"/>
   </r>
@@ -5890,7 +6003,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
     <x v="85"/>
   </r>
@@ -5901,7 +6014,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="170"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="86"/>
   </r>
@@ -5912,7 +6025,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-170"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
     <x v="86"/>
   </r>
@@ -5923,7 +6036,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
     <x v="87"/>
   </r>
@@ -5934,7 +6047,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
     <x v="80"/>
   </r>
@@ -5945,7 +6058,7 @@
     <s v="Flowers"/>
     <n v="96"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
     <x v="88"/>
   </r>
@@ -5956,7 +6069,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
     <x v="89"/>
   </r>
@@ -5967,7 +6080,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
     <x v="89"/>
   </r>
@@ -5978,7 +6091,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
     <x v="90"/>
   </r>
@@ -5989,7 +6102,7 @@
     <s v="Subscriptions"/>
     <n v="120"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-375"/>
     <x v="91"/>
   </r>
@@ -6000,7 +6113,7 @@
     <s v="Stationery"/>
     <n v="310"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-370"/>
     <x v="91"/>
   </r>
@@ -6011,7 +6124,7 @@
     <s v="Commission"/>
     <n v="962"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-320"/>
     <x v="91"/>
   </r>
@@ -6022,7 +6135,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
     <x v="92"/>
   </r>
@@ -6033,7 +6146,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="92"/>
   </r>
@@ -6044,7 +6157,7 @@
     <s v="Consumables"/>
     <n v="61"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-325"/>
     <x v="93"/>
   </r>
@@ -6055,7 +6168,7 @@
     <s v="Sales Tax"/>
     <n v="8400"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-600"/>
     <x v="94"/>
   </r>
@@ -6066,7 +6179,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
     <x v="95"/>
   </r>
@@ -6077,7 +6190,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
     <x v="95"/>
   </r>
@@ -6088,7 +6201,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
     <x v="95"/>
   </r>
@@ -6099,7 +6212,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
     <x v="95"/>
   </r>
@@ -6110,7 +6223,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="87"/>
   </r>
@@ -6121,7 +6234,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-100"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
     <x v="87"/>
   </r>
@@ -6132,7 +6245,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
     <x v="96"/>
   </r>
@@ -6143,7 +6256,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
     <x v="97"/>
   </r>
@@ -6154,7 +6267,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
     <x v="98"/>
   </r>
@@ -6165,7 +6278,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
     <x v="98"/>
   </r>
@@ -6176,7 +6289,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
     <x v="99"/>
   </r>
@@ -6187,7 +6300,7 @@
     <s v="Flowers"/>
     <n v="105"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
     <x v="91"/>
   </r>
@@ -6198,7 +6311,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
     <x v="100"/>
   </r>
@@ -6209,7 +6322,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="100"/>
   </r>
@@ -6220,7 +6333,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
     <x v="101"/>
   </r>
@@ -6231,7 +6344,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
     <x v="101"/>
   </r>
@@ -6242,7 +6355,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
     <x v="101"/>
   </r>
@@ -6253,7 +6366,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
     <x v="101"/>
   </r>
@@ -6264,7 +6377,7 @@
     <s v="Training"/>
     <n v="389.25"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-385"/>
     <x v="96"/>
   </r>
@@ -6275,7 +6388,7 @@
     <s v="Commission"/>
     <n v="514"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-320"/>
     <x v="102"/>
   </r>
@@ -6286,7 +6399,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="170"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="96"/>
   </r>
@@ -6297,7 +6410,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-170"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
     <x v="96"/>
   </r>
@@ -6308,7 +6421,7 @@
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
     <x v="103"/>
   </r>
@@ -6319,7 +6432,7 @@
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
     <x v="104"/>
   </r>
@@ -6330,7 +6443,7 @@
     <s v="Stationery"/>
     <n v="289"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-370"/>
     <x v="103"/>
   </r>
@@ -6341,7 +6454,7 @@
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
     <x v="105"/>
   </r>
@@ -6352,7 +6465,7 @@
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
     <x v="105"/>
   </r>
@@ -6363,7 +6476,7 @@
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
     <x v="103"/>
   </r>
@@ -6374,7 +6487,7 @@
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
     <x v="106"/>
   </r>
@@ -6385,7 +6498,7 @@
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="106"/>
   </r>
@@ -6396,7 +6509,7 @@
     <s v="Sales Tax"/>
     <n v="2200"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-600"/>
     <x v="107"/>
   </r>
@@ -6407,7 +6520,7 @@
     <s v="Flowers"/>
     <n v="75"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
     <x v="107"/>
   </r>
@@ -6418,7 +6531,7 @@
     <s v="Office equipment"/>
     <n v="10000"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-100"/>
     <x v="103"/>
   </r>
@@ -6429,7 +6542,7 @@
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
     <x v="108"/>
   </r>
@@ -6440,7 +6553,7 @@
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
     <x v="108"/>
   </r>
@@ -6451,7 +6564,7 @@
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
     <x v="108"/>
   </r>
@@ -6462,7 +6575,7 @@
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
     <x v="108"/>
   </r>
@@ -6473,7 +6586,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="70"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
     <x v="109"/>
   </r>
@@ -6484,7 +6597,7 @@
     <s v="Petty Cash Reimbursement"/>
     <n v="-70"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
     <x v="109"/>
   </r>
@@ -6495,7 +6608,7 @@
     <s v="Provisional Tax"/>
     <n v="3700"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-600"/>
     <x v="109"/>
   </r>
@@ -6503,8 +6616,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C7D2B2C-C632-4600-8FDB-BFB8CF298C28}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C7D2B2C-C632-4600-8FDB-BFB8CF298C28}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
@@ -6512,7 +6625,14 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" numFmtId="43" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="111">
@@ -6673,7 +6793,21 @@
     <field x="9"/>
     <field x="8"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="6"/>
+  </colFields>
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -6683,47 +6817,14 @@
     <i>
       <x v="2"/>
     </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="3">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -6733,8 +6834,43 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="8" type="dateNewerThanOrEqual" evalOrder="-1" id="1">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="greaterThanOrEqual" val="40909"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -7061,136 +7197,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12F7FAC-A556-4AD7-8B3C-9E3C95F7E126}">
-  <dimension ref="A3:B17"/>
+  <dimension ref="A3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="B3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B4">
-        <v>11468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5">
+      <c r="B5" s="22">
+        <v>30270.25</v>
+      </c>
+      <c r="C5" s="22">
+        <v>35</v>
+      </c>
+      <c r="D5" s="22">
+        <v>-4</v>
+      </c>
+      <c r="E5" s="22">
         <v>30301.25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6">
+        <v>169</v>
+      </c>
+      <c r="B6" s="22">
+        <v>34624</v>
+      </c>
+      <c r="C6" s="22">
+        <v>35</v>
+      </c>
+      <c r="D6" s="22">
+        <v>5</v>
+      </c>
+      <c r="E6" s="22">
         <v>34664</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7">
-        <v>25714</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8">
-        <v>30040</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9">
-        <v>32422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10">
-        <v>39749</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11">
-        <v>28562</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12">
-        <v>46358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13">
-        <v>47366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14">
-        <v>38457.479999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15">
-        <v>28628</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16">
-        <v>38011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B17">
-        <v>431740.73</v>
+      <c r="B7" s="22">
+        <v>64894.25</v>
+      </c>
+      <c r="C7" s="22">
+        <v>70</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1</v>
+      </c>
+      <c r="E7" s="22">
+        <v>64965.25</v>
       </c>
     </row>
   </sheetData>
@@ -7203,7 +7298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I209"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K208" sqref="K208"/>
     </sheetView>
   </sheetViews>
@@ -13287,7 +13382,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
